--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -475,7 +482,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -490,7 +497,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,37 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>noticeviewcontroller中三个标签上的颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMessageViewController发状态，有图片的情况下，应该有等待的提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonInfoViewController 更多按钮点击后弹actionsheet，可以将好友移动到别的分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有单独的通讯录管理，从通讯录里点人应该是先进入PersonInfo界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagedetailviewcontroller 评论列表没有及时更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送过来后，NoticeView中必须马上显示新条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeviewcontroller 重复加载contactview的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>推送消息到达时需要有提示，包括声音和界面变化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>noticeviewcontroller中三个标签上的颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMessageViewController发状态，有图片的情况下，应该有等待的提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonInfoViewController 更多按钮点击后弹actionsheet，可以将好友移动到别的分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有单独的通讯录管理，从通讯录里点人应该是先进入PersonInfo界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagedetailviewcontroller 评论列表没有及时更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送过来后，NoticeView中必须马上显示新条目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的商品</t>
+    <t>推送消息 弹窗提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -492,43 +500,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>noticeviewcontroller中三个标签上的颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,31 +33,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>messagedetailviewcontroller 评论列表没有及时更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送过来后，NoticeView中必须马上显示新条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeviewcontroller 重复加载contactview的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送消息到达时需要有提示，包括声音和界面变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送消息 弹窗提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>需要有单独的通讯录管理，从通讯录里点人应该是先进入PersonInfo界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>messagedetailviewcontroller 评论列表没有及时更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送过来后，NoticeView中必须马上显示新条目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeviewcontroller 重复加载contactview的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送消息到达时需要有提示，包括声音和界面变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送消息 弹窗提示</t>
+    <t>message下拉更新卡死</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -149,13 +153,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -490,7 +497,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -501,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -511,7 +518,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -520,33 +527,38 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
+      <c r="A6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>noticeviewcontroller中三个标签上的颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>message下拉更新卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手平台、寻物平台条目中的textView点完后无法进入详情界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手平台、寻物平台删除东西后，可以直接在本地的line中先删除，这样效果比较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面 时间显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面聊天记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程项删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,11 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -507,12 +530,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -522,27 +545,27 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -552,17 +575,44 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -61,31 +61,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>二手平台、寻物平台条目中的textView点完后无法进入详情界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手平台、寻物平台删除东西后，可以直接在本地的line中先删除，这样效果比较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面 时间显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面聊天记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程项删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>message下拉更新卡死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二手平台、寻物平台条目中的textView点完后无法进入详情界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二手平台、寻物平台删除东西后，可以直接在本地的line中先删除，这样效果比较好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天界面 时间显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天界面聊天记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程项删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -570,7 +570,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -580,38 +580,38 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
+      <c r="A11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -61,31 +61,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>二手平台、寻物平台删除东西后，可以直接在本地的line中先删除，这样效果比较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面 时间显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面聊天记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程项删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message下拉更新卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>二手平台、寻物平台条目中的textView点完后无法进入详情界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二手平台、寻物平台删除东西后，可以直接在本地的line中先删除，这样效果比较好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天界面 时间显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天界面聊天记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程项删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>message下拉更新卡死</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,37 +581,37 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>noticeviewcontroller中三个标签上的颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>二手平台、寻物平台条目中的textView点完后无法进入详情界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从相册选取头像</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -177,9 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -517,101 +520,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="92.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="92.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>noticeviewcontroller中三个标签上的颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>从相册选取头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品、物品信息修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,7 +590,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -620,6 +632,21 @@
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>noticeviewcontroller中三个标签上的颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>注销功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友搜索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -625,7 +629,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -647,6 +651,11 @@
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -89,23 +89,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>图片上传优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品、物品信息修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>从相册选取头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片上传优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品、物品信息修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友搜索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -634,28 +634,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -89,23 +89,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>商品、物品信息修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从相册选取头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>图片上传优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品、物品信息修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从相册选取头像</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -635,27 +635,27 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,7 +619,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/newdevdoc.xlsx
+++ b/newdevdoc.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -624,7 +624,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
